--- a/experiment result/64_0.1_40_zs20_kappa_lp.xlsx
+++ b/experiment result/64_0.1_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07125423227172605</v>
+        <v>0.009890187807852998</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0866774365271791</v>
+        <v>0.01319409435868274</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08621154258437887</v>
+        <v>0.02242165025361148</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0765703815553673</v>
+        <v>0.02302489472944903</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06132537837853839</v>
+        <v>0.008446823087253998</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07877987652964766</v>
+        <v>0.03305790647385812</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0779674937890785</v>
+        <v>0.007843047957872169</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0797316039790177</v>
+        <v>0.04653948284260003</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0644335112385641</v>
+        <v>0.0269403476127008</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08457222078775424</v>
+        <v>0.02897634616642585</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1118774763155031</v>
+        <v>0.05154695009329761</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1091103056736732</v>
+        <v>0.05774153840758596</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1150243726838262</v>
+        <v>0.01131630992268898</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.118637277344344</v>
+        <v>0.01051723614744758</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07927708761588714</v>
+        <v>0.03350633084115395</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0935335880162599</v>
+        <v>0.02413825018919932</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08890522841145999</v>
+        <v>0.02513127298342582</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09434774136223426</v>
+        <v>0.007703632969374553</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06968233801566985</v>
+        <v>0.02451607111924086</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07789162646652882</v>
+        <v>0.01397402356070038</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07573796228674527</v>
+        <v>0.01182674490775531</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06479193813434021</v>
+        <v>0.01518441977992752</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0982465072382622</v>
+        <v>0.03728772711924516</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06043163585235083</v>
+        <v>0.004488059313877133</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06125386542416955</v>
+        <v>0.004289331575015534</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1043898518936659</v>
+        <v>0.0447521693631359</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07297559966704524</v>
+        <v>0.01790542139622404</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05313889070493651</v>
+        <v>0.04831688987543146</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06192413171243316</v>
+        <v>0.01810108522135923</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1031421037590051</v>
+        <v>0.02453424816425664</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04761390388903543</v>
+        <v>0.001975540966499531</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06679262282364737</v>
+        <v>0.00471233120618618</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1064510995540943</v>
+        <v>0.02123636464022612</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05217374674997485</v>
+        <v>0.003260523925587502</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.05697548059567514</v>
+        <v>0.02070807201775949</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08119107791052979</v>
+        <v>0.0149466645916628</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.05691636366978613</v>
+        <v>0.004174146042395245</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1242776600958206</v>
+        <v>0.02546249154142948</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.04636192610839515</v>
+        <v>0.02824214526070111</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1036895320635044</v>
+        <v>0.03866783061788778</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1049986550762075</v>
+        <v>0.050884953113773</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.05645777369973715</v>
+        <v>0.01672520812084218</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03812618532813473</v>
+        <v>0.005910775550084712</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0463738573868924</v>
+        <v>0.00843904579701352</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05785143610707362</v>
+        <v>0.04103296673045013</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07413589389759012</v>
+        <v>0.02113649038872715</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09131658583407405</v>
+        <v>0.05279359695119677</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06499605646797509</v>
+        <v>0.00250850740384113</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.08630825333051481</v>
+        <v>0.01411110470905036</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0920422495118231</v>
+        <v>0.001717613895534583</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06314455002275514</v>
+        <v>0.01591684531257364</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06845471116065614</v>
+        <v>0.01132231938192952</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.04550210220918696</v>
+        <v>0.0002083339858770759</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.05991469511527586</v>
+        <v>0.001438541980595126</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07864902738448401</v>
+        <v>0.01612694737215598</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.05703044061352249</v>
+        <v>0.02206580561657383</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0651271569142679</v>
+        <v>0.004918320684214258</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.08902143628146782</v>
+        <v>0.0126187147658679</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1160453800883361</v>
+        <v>0.0326879967874202</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07880876844427179</v>
+        <v>0.003100897493900916</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03480094443142723</v>
+        <v>0.0004338121743480323</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06719199022526828</v>
+        <v>0.02693628157355737</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08664353592622355</v>
+        <v>0.01862526069058405</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03964566023823448</v>
+        <v>0.001816636875213535</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.06359621370247205</v>
+        <v>0.05796821640641391</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07794706773213517</v>
+        <v>0.04312463860535951</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05634176129082721</v>
+        <v>0.02175250438177243</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.05858427804068691</v>
+        <v>0.004483418541885223</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06454586796806504</v>
+        <v>0.006962738407297939</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.06499000659795601</v>
+        <v>0.0101672427219437</v>
       </c>
     </row>
   </sheetData>
